--- a/data/clean_data4.xlsx
+++ b/data/clean_data4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iannnlee/Documents/GitHub/iannnlee.github.io/iannnlee.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADDF6C-CD41-FB44-B64F-E506308950E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591BC8D-AD57-0946-AA43-7E90FA28FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{840ECCB7-F51C-AF45-9F52-46DC8141EB92}"/>
   </bookViews>
   <sheets>
-    <sheet name="clean_data2" sheetId="1" r:id="rId1"/>
+    <sheet name="clean_data4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,12 +40,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">  Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Post-Secondary (Non-Tertiary)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022 </t>
   </si>
   <si>
@@ -76,13 +70,19 @@
     <t xml:space="preserve">2013 </t>
   </si>
   <si>
-    <t xml:space="preserve">  Below Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Diploma &amp; Professional Qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  University</t>
+    <t>Below Secondary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Post-Secondary (Non-Tertiary)</t>
+  </si>
+  <si>
+    <t>Diploma &amp; Professional Qualification</t>
+  </si>
+  <si>
+    <t>University</t>
   </si>
 </sst>
 </file>
@@ -471,11 +471,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA2E5C-D9E4-C749-BFAE-AB19A4D934C8}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -485,18 +483,18 @@
     <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -505,233 +503,203 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>15.3</v>
+        <v>14.3</v>
       </c>
       <c r="C2" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C3" s="3">
         <v>14.3</v>
       </c>
-      <c r="D2" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G2" s="3">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="D3" s="3">
         <v>16.2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.3</v>
       </c>
       <c r="E3" s="3">
         <v>16.2</v>
       </c>
       <c r="F3" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="G3" s="3">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B6" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
         <v>15.6</v>
       </c>
-      <c r="C4" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="C10" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="D10" s="3">
         <v>14.3</v>
       </c>
-      <c r="D5" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E11" s="3">
         <v>14.2</v>
       </c>
-      <c r="C6" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>15.4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="G7" s="3">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="G9" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15.6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>14.3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="E11" s="3">
-        <v>13.8</v>
-      </c>
       <c r="F11" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="G11" s="3">
         <v>13.2</v>
       </c>
     </row>

--- a/data/clean_data4.xlsx
+++ b/data/clean_data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iannnlee/Documents/GitHub/iannnlee.github.io/iannnlee.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591BC8D-AD57-0946-AA43-7E90FA28FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC399978-2861-3441-8D1F-6B820BB1CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15920" xr2:uid="{840ECCB7-F51C-AF45-9F52-46DC8141EB92}"/>
   </bookViews>
@@ -473,7 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA2E5C-D9E4-C749-BFAE-AB19A4D934C8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
